--- a/data/imrana_2024_food.xlsx
+++ b/data/imrana_2024_food.xlsx
@@ -10,10 +10,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -56,13 +56,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -124,13 +127,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -150,117 +177,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.86"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="6" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="6" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/data/imrana_2024_food.xlsx
+++ b/data/imrana_2024_food.xlsx
@@ -61,7 +61,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -107,9 +107,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -117,9 +114,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -430,16 +424,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +450,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -473,7 +467,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
@@ -490,7 +484,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="4">
         <v>0.3</v>
       </c>
@@ -503,11 +497,11 @@
         <v>8</v>
       </c>
       <c r="F4" s="4">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -524,7 +518,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -534,11 +528,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="6">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="5">
         <v>33</v>
       </c>
       <c r="B7" s="4">
@@ -547,10 +541,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="4">
         <v>100</v>
       </c>
@@ -560,10 +554,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="4">
         <v>330</v>
       </c>
@@ -573,7 +567,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
   </sheetData>
